--- a/8/4/Por sector acreedor 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/Por sector acreedor 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>Serie</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5379,25 +5382,25 @@
         <v>83</v>
       </c>
       <c r="B74">
-        <v>210956</v>
+        <v>209510</v>
       </c>
       <c r="C74">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D74">
         <v>174</v>
       </c>
       <c r="E74">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="F74">
-        <v>5285</v>
+        <v>5255</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74">
-        <v>5283</v>
+        <v>5253</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5406,37 +5409,102 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>33759</v>
+        <v>33354</v>
       </c>
       <c r="L74">
-        <v>8514</v>
+        <v>8504</v>
       </c>
       <c r="M74">
-        <v>25245</v>
+        <v>24850</v>
       </c>
       <c r="N74">
-        <v>73604</v>
+        <v>72606</v>
       </c>
       <c r="O74">
-        <v>12114</v>
+        <v>12382</v>
       </c>
       <c r="P74">
-        <v>61490</v>
+        <v>60224</v>
       </c>
       <c r="Q74">
-        <v>94321</v>
+        <v>94308</v>
       </c>
       <c r="R74">
         <v>2060</v>
       </c>
       <c r="S74">
-        <v>92261</v>
+        <v>92249</v>
       </c>
       <c r="T74">
         <v>1158</v>
       </c>
       <c r="U74">
         <v>1158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <v>213283</v>
+      </c>
+      <c r="C75">
+        <v>2664</v>
+      </c>
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>2591</v>
+      </c>
+      <c r="F75">
+        <v>4955</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>4954</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>32910</v>
+      </c>
+      <c r="L75">
+        <v>8785</v>
+      </c>
+      <c r="M75">
+        <v>24125</v>
+      </c>
+      <c r="N75">
+        <v>71901</v>
+      </c>
+      <c r="O75">
+        <v>12272</v>
+      </c>
+      <c r="P75">
+        <v>59629</v>
+      </c>
+      <c r="Q75">
+        <v>99687</v>
+      </c>
+      <c r="R75">
+        <v>1186</v>
+      </c>
+      <c r="S75">
+        <v>98501</v>
+      </c>
+      <c r="T75">
+        <v>1165</v>
+      </c>
+      <c r="U75">
+        <v>1165</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/Por sector acreedor 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/Por sector acreedor 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>Serie</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5507,6 +5510,71 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="76" spans="1:21">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76">
+        <v>233155</v>
+      </c>
+      <c r="C76">
+        <v>2837</v>
+      </c>
+      <c r="D76">
+        <v>244</v>
+      </c>
+      <c r="E76">
+        <v>2593</v>
+      </c>
+      <c r="F76">
+        <v>5012</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>5011</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>36094</v>
+      </c>
+      <c r="L76">
+        <v>9803</v>
+      </c>
+      <c r="M76">
+        <v>26291</v>
+      </c>
+      <c r="N76">
+        <v>73426</v>
+      </c>
+      <c r="O76">
+        <v>13927</v>
+      </c>
+      <c r="P76">
+        <v>59500</v>
+      </c>
+      <c r="Q76">
+        <v>112279</v>
+      </c>
+      <c r="R76">
+        <v>1428</v>
+      </c>
+      <c r="S76">
+        <v>110851</v>
+      </c>
+      <c r="T76">
+        <v>3506</v>
+      </c>
+      <c r="U76">
+        <v>3506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
